--- a/confusion_excel.xlsx
+++ b/confusion_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beep\Documents\GitHub\assignment-knn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348907CD-9937-4F55-A695-356A06B198E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FD7B35-6AB9-4D77-82F9-410D532A1979}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{A78CDA3B-E881-4383-935D-14590EF00757}"/>
   </bookViews>
@@ -48,19 +48,19 @@
     <t>NO</t>
   </si>
   <si>
-    <t>TP = 1177</t>
-  </si>
-  <si>
-    <t>FN = 1131</t>
-  </si>
-  <si>
-    <t>FP = 665</t>
-  </si>
-  <si>
-    <t>TN  = 6072</t>
-  </si>
-  <si>
     <t>n = 9045</t>
+  </si>
+  <si>
+    <t>TP = 987</t>
+  </si>
+  <si>
+    <t>FN = 1172</t>
+  </si>
+  <si>
+    <t>FP = 490</t>
+  </si>
+  <si>
+    <t>TN  = 6396</t>
   </si>
 </sst>
 </file>
@@ -439,7 +439,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,7 +459,7 @@
     <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
@@ -476,10 +476,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -488,10 +488,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
